--- a/biology/Botanique/Pierre_Thomas_(journaliste)/Pierre_Thomas_(journaliste).xlsx
+++ b/biology/Botanique/Pierre_Thomas_(journaliste)/Pierre_Thomas_(journaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Thomas, né le 23 novembre 1954 à Lausanne, est un journaliste indépendant suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une carrière de journaliste généraliste (correspondant dans le canton de Fribourg, chef d'édition à L’Impartial, à L'Illustré, à dimanche.ch, et rédacteur en chef du Quotidien de La Côte), il se spécialise dans la gastronomie et les vins. Il collabore alors à plusieurs guides gastronomiques suisses tels que GaultMillau ou Le Coup de Fourchette, ainsi qu'à de nombreux journaux et magazines suisses sur le vin, la gastronomie et le tourisme. Il est également dégustateur, dans des jurys régionaux (label Terravin), nationaux (Grand Prix du Vin Suisse) ou internationaux (Concours Mondial de Bruxelles, participation à 25 éditions).
 Il remporte plusieurs prix, dont celui du Champagne Lanson en 2001 (meilleur article de presse non spécialisée pour un reportage sur les vins de vendange tardive suisses, paru dans dimanche.ch) et 2003 (meilleur article de journal suisse pour un reportage sur les vins en Roumanie, paru dans Terre &amp; Nature). Son Guide des Vignerons de Suisse romande remporte le Prix spécial du jury du château de Chatagneréaz en 2000. L'album Vignobles suisses, publié avec des photographies de Régis Colombo, obtient successivement le prix « Monographie et études spécialisées à caractère promotionnel » de l'OIV (Organisation internationale de la vigne et du vin) en 2004 et le Prix Edmond de Rothschild, pour « un ouvrage sur le vin édité en Suisse », première volée en 2006.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guide des Vignerons de Suisse romande, 24 Heures, 1998, 220 p..
 Le Coup de Fourchette, 24 Heures, 1998–1999.
@@ -582,7 +598,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site personnel.
  Portail de la vigne et du vin   Portail du canton de Vaud                    </t>
